--- a/data/시도2자리코드.xlsx
+++ b/data/시도2자리코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\swc\ga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB69EA80-BE35-4E01-8F7A-7007BE4C771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5C322-AF97-4518-B76D-97F4E4855044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22980" yWindow="1755" windowWidth="21510" windowHeight="13470" xr2:uid="{3E345D6D-81C1-476F-A419-39722B35E822}"/>
+    <workbookView xWindow="-24000" yWindow="735" windowWidth="22695" windowHeight="14670" xr2:uid="{3E345D6D-81C1-476F-A419-39722B35E822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>시도명</t>
   </si>
@@ -162,6 +162,38 @@
   </si>
   <si>
     <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수도권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C730C134-0E80-433B-A6D8-0468FE9CC14D}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -541,7 +573,7 @@
     <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +583,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -562,8 +600,14 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -573,8 +617,14 @@
       <c r="C3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -584,8 +634,14 @@
       <c r="C4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -595,8 +651,14 @@
       <c r="C5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -606,8 +668,14 @@
       <c r="C6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -617,8 +685,14 @@
       <c r="C7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -628,8 +702,14 @@
       <c r="C8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -639,8 +719,14 @@
       <c r="C9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -650,8 +736,14 @@
       <c r="C10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -661,8 +753,14 @@
       <c r="C11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -672,8 +770,14 @@
       <c r="C12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -683,8 +787,14 @@
       <c r="C13">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -694,8 +804,14 @@
       <c r="C14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -705,8 +821,14 @@
       <c r="C15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -716,8 +838,14 @@
       <c r="C16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -727,8 +855,14 @@
       <c r="C17">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -738,8 +872,14 @@
       <c r="C18">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -748,6 +888,12 @@
       </c>
       <c r="C19">
         <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
